--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_st02.xlsx
@@ -1624,7 +1624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]So my preliminary judgment is that you are most likely my “competitor” as far as this incident goes.
+    <t xml:space="preserve">[name="Silence"]So my preliminary judgment is that you are most likely my 'competitor' as far as this incident goes.
 </t>
   </si>
   <si>
@@ -1676,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]As my “competitor”, you'd know more than just that. You likely had an accomplice, who should've told you everything that happened there.
+    <t xml:space="preserve">[name="Silence"]As my 'competitor', you'd know more than just that. You likely had an accomplice, who should've told you everything that happened there.
 </t>
   </si>
   <si>
@@ -1936,7 +1936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]It might even be the perfect opportunity for you to salvage the whole “Diαbolic Crisis” situation.
+    <t xml:space="preserve">[name="Muelsyse"]It might even be the perfect opportunity for you to salvage the whole 'Diαbolic Crisis' situation.
 </t>
   </si>
   <si>
@@ -2012,7 +2012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]Did you subconsciously arrive at the conclusion that, just like you and Saria, I want Anthony, this “lead,” as well?
+    <t xml:space="preserve">[name="Silence"]Did you subconsciously arrive at the conclusion that, just like you and Saria, I want Anthony, this 'lead,' as well?
 </t>
   </si>
   <si>
@@ -2032,7 +2032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]I don't plan on using your so-called “lead,” Director Muelsyse.
+    <t xml:space="preserve">[name="Silence"]I don't plan on using your so-called 'lead,' Director Muelsyse.
 </t>
   </si>
   <si>
@@ -2040,15 +2040,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]I'm not doing this because I want to keep a leash on him, your “lead,” through Rhodes Island.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Silence"]Throughout our entire conversation, you used the word “lead” to describe him over and over. I don't really like calling him that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Silence"]Anthony isn't a “lead” to me. He's a person; he's alive.
+    <t xml:space="preserve">[name="Silence"]I'm not doing this because I want to keep a leash on him, your 'lead,' through Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Silence"]Throughout our entire conversation, you used the word 'lead' to describe him over and over. I don't really like calling him that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Silence"]Anthony isn't a 'lead' to me. He's a person; he's alive.
 </t>
   </si>
   <si>
@@ -2256,7 +2256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]But there are no “ifs” in this world. I know that.
+    <t xml:space="preserve">[name="Muelsyse"]But there are no 'ifs' in this world. I know that.
 </t>
   </si>
   <si>
